--- a/pwd23-to-fhirstu3.xlsx
+++ b/pwd23-to-fhirstu3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\geboortezorg-nictiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A6250-3D7C-4E56-A94C-A736671B174F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC818321-2D49-4027-8FB4-9C82137A2A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12165" uniqueCount="4722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12164" uniqueCount="4721">
   <si>
     <t>ID</t>
   </si>
@@ -14343,9 +14343,6 @@
   </si>
   <si>
     <t>bc-PregnancyCheckUp|PrenatalVisit</t>
-  </si>
-  <si>
-    <t>hebben we deze profielen echt nodig of zib-Problem gebruiken?</t>
   </si>
   <si>
     <t>Nieuw</t>
@@ -14854,8 +14851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E424" sqref="E424"/>
@@ -59934,8 +59931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EF7F9-058C-435A-B995-FE0A72459F35}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -59949,13 +59946,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>1440</v>
@@ -60004,9 +60001,6 @@
       <c r="C5" s="13" t="s">
         <v>4698</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>4710</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -60074,7 +60068,7 @@
         <v>4698</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -60237,7 +60231,7 @@
         <v>4698</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -60279,7 +60273,7 @@
         <v>4697</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -60420,7 +60414,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -60445,7 +60439,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -60515,17 +60509,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">

--- a/pwd23-to-fhirstu3.xlsx
+++ b/pwd23-to-fhirstu3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\geboortezorg-nictiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6253E0B-5CF0-4675-A84F-BF231AD2332E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4EB57-92C4-4522-961C-436DF6A4DC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12253" uniqueCount="4751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12254" uniqueCount="4752">
   <si>
     <t>ID</t>
   </si>
@@ -14438,9 +14438,6 @@
     <t>extern reviewen</t>
   </si>
   <si>
-    <t>subject moet bc-Fetus of bc-Child zijn</t>
-  </si>
-  <si>
     <t>context aanpassen</t>
   </si>
   <si>
@@ -14466,19 +14463,31 @@
   </si>
   <si>
     <t>volgens IHE spec</t>
+  </si>
+  <si>
+    <t>wellicht toch samenvoegen met disorderoflaboranddelivery?</t>
+  </si>
+  <si>
+    <t>subject moet bc-Fetus of bc-Child zijn -&gt; bodysite kan geen subject zijn, wel focus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -14575,31 +14584,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14941,7 +14951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1086"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -32783,7 +32793,7 @@
         <v>4357</v>
       </c>
       <c r="H412" s="9" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="I412" t="s">
         <v>1989</v>
@@ -35522,7 +35532,7 @@
         <v>4357</v>
       </c>
       <c r="H475" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="I475" t="s">
         <v>1989</v>
@@ -50526,7 +50536,7 @@
         <v>4650</v>
       </c>
       <c r="F825" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="K825" t="s">
         <v>2513</v>
@@ -50561,7 +50571,7 @@
         <v>4651</v>
       </c>
       <c r="F826" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I826" t="s">
         <v>1520</v>
@@ -50602,7 +50612,7 @@
         <v>4652</v>
       </c>
       <c r="F827" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I827" t="s">
         <v>1981</v>
@@ -50643,7 +50653,7 @@
         <v>4653</v>
       </c>
       <c r="F828" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="J828" t="s">
         <v>1694</v>
@@ -50681,7 +50691,7 @@
         <v>4653</v>
       </c>
       <c r="F829" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I829" t="s">
         <v>1981</v>
@@ -50722,7 +50732,7 @@
         <v>4653</v>
       </c>
       <c r="F830" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I830" t="s">
         <v>1984</v>
@@ -50763,7 +50773,7 @@
         <v>4654</v>
       </c>
       <c r="F831" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I831" t="s">
         <v>1988</v>
@@ -50804,7 +50814,7 @@
         <v>4654</v>
       </c>
       <c r="F832" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I832" t="s">
         <v>1988</v>
@@ -50845,7 +50855,7 @@
         <v>4654</v>
       </c>
       <c r="F833" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I833" t="s">
         <v>1988</v>
@@ -50886,7 +50896,7 @@
         <v>4654</v>
       </c>
       <c r="F834" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I834" t="s">
         <v>1988</v>
@@ -50927,7 +50937,7 @@
         <v>4654</v>
       </c>
       <c r="F835" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I835" t="s">
         <v>1988</v>
@@ -50968,7 +50978,7 @@
         <v>4654</v>
       </c>
       <c r="F836" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="I836" t="s">
         <v>1988</v>
@@ -51009,7 +51019,7 @@
         <v>4658</v>
       </c>
       <c r="F837" s="3" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="J837" t="s">
         <v>2367</v>
@@ -60027,8 +60037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EF7F9-058C-435A-B995-FE0A72459F35}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -60185,8 +60195,11 @@
       <c r="C8" s="13" t="s">
         <v>4688</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>4723</v>
+      <c r="E8" s="16" t="s">
+        <v>4716</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>4750</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -60247,8 +60260,8 @@
       <c r="C12" s="13" t="s">
         <v>4688</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>4723</v>
+      <c r="E12" s="16" t="s">
+        <v>4716</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -60311,8 +60324,8 @@
       <c r="C16" s="13" t="s">
         <v>4688</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>4723</v>
+      <c r="E16" s="16" t="s">
+        <v>4716</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>4717</v>
@@ -60539,8 +60552,8 @@
       <c r="F28" s="13" t="s">
         <v>4717</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>4741</v>
+      <c r="G28" s="16" t="s">
+        <v>4751</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -60560,7 +60573,7 @@
         <v>4716</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -60577,10 +60590,10 @@
         <v>4692</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>4742</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>4743</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>4744</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -60614,7 +60627,7 @@
         <v>4716</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -60631,7 +60644,7 @@
         <v>4740</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -60644,14 +60657,14 @@
       <c r="C34" s="13" t="s">
         <v>4689</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>4717</v>
+      <c r="E34" s="16" t="s">
+        <v>4716</v>
       </c>
       <c r="F34" s="13" t="s">
+        <v>4744</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>4745</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>4746</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -60664,14 +60677,14 @@
       <c r="C35" s="13" t="s">
         <v>4689</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>4717</v>
+      <c r="E35" s="16" t="s">
+        <v>4716</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -60741,12 +60754,12 @@
         <v>4689</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>1900</v>
